--- a/Stasiun1.xlsx
+++ b/Stasiun1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\RNN Jaya\RNN-Jaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39C7501-1FB6-4612-93B1-698C87212542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E4AA6-40B5-4053-BFF7-4A96DE377098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{46E7E1EB-F503-4008-B683-FDFB05134706}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Elevasi</t>
   </si>
@@ -196,6 +196,144 @@
   </si>
   <si>
     <t>Stasiun Klimatologi Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>Stasiun Klimatologi Sumatera Barat</t>
+  </si>
+  <si>
+    <t>Stasiun Klimatologi Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Stasiun Klimatologi Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Aek Godang</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Ahmad Yani</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Aji Pangeran Tumenggung Pranoto</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Amahai</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Andi Jemma</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Bandaneira</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Banyuwangi</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Beringin</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Beto Ambari</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Binaka</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Budiarto</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Citeko</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Cut Nyak Dhien Nagan Raya</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Dabo</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi David Constatjin Saudale</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Depati Amir</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Depati Parbo</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Djalaluddin</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Dok II Jayapura</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Domine Eduard Osok</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Eltari</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Emalamo</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Enarotali</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Fatmawati Soekarno</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi FL Tobing</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Frans Kaisiepo</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Frans Sales Lega</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Fransiskus Xaverius Seda</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Gamar Malamo</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Gewayantana</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Gusti Syamsir Alam</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi H. AS. Hanandjoeddin</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi H. Asan</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Hang Nadim</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi I Gusti Ngurah Rai</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Iskandar</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Japura</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Juanda</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Juwata</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kalimarau</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Karel Sadsuitubun</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kasiguncu</t>
+  </si>
+  <si>
+    <t>Stasiun Meteorologi Kemayoran</t>
   </si>
 </sst>
 </file>
@@ -596,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2832B855-74B0-47B9-BC56-39E57D0F7FFB}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,6 +1505,650 @@
         <v>56</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>100.29786</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-0.54549000000000003</v>
+      </c>
+      <c r="C55" s="2">
+        <v>128</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>104.77197</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-2.9273199999999999</v>
+      </c>
+      <c r="C56" s="2">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>98.714849999999998</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3.62114</v>
+      </c>
+      <c r="C57" s="2">
+        <v>25</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>99.45</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="C58" s="2">
+        <v>281</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>110.37779999999999</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-6.9768299999999996</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>117.16</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-0.48</v>
+      </c>
+      <c r="C60" s="2">
+        <v>10</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>128.92840000000001</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-3.3464</v>
+      </c>
+      <c r="C61" s="2">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>120.32422</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-2.5547200000000001</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>129.90430000000001</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-4.5233800000000004</v>
+      </c>
+      <c r="C63" s="2">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>114.3553</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-8.2149999999999999</v>
+      </c>
+      <c r="C64" s="2">
+        <v>52</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>114.53</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="C65" s="2">
+        <v>42</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>122.62</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-5.47</v>
+      </c>
+      <c r="C66" s="2">
+        <v>233</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>97.703599999999994</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.1649</v>
+      </c>
+      <c r="C67" s="2">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>106.56389</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-6.2866999999999997</v>
+      </c>
+      <c r="C68" s="2">
+        <v>42</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>106.85</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-6.7</v>
+      </c>
+      <c r="C69" s="2">
+        <v>920</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>96.247960000000006</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4.0492800000000004</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>104.58</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-0.48</v>
+      </c>
+      <c r="C71" s="2">
+        <v>29</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>123.07395</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-10.76662</v>
+      </c>
+      <c r="C72" s="2">
+        <v>141</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>106.13</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-2.17</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>101.45</v>
+      </c>
+      <c r="B74" s="2">
+        <v>-2.0830000000000002</v>
+      </c>
+      <c r="C74" s="2">
+        <v>782</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>122.85250000000001</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="C75" s="2">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>140.72</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>131.28575000000001</v>
+      </c>
+      <c r="B77" s="2">
+        <v>-0.89117999999999997</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>123.67039</v>
+      </c>
+      <c r="B78" s="2">
+        <v>-10.1678</v>
+      </c>
+      <c r="C78" s="2">
+        <v>102</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>126</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>136.38</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-3.9268800000000001</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1650</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>102.33669999999999</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-3.8582000000000001</v>
+      </c>
+      <c r="C81" s="2">
+        <v>24</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>98.88</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="C82" s="2">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>136.10361</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-1.19069</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>120.45</v>
+      </c>
+      <c r="B84" s="2">
+        <v>-8.6300000000000008</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1070</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>122.23752</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-8.6357700000000008</v>
+      </c>
+      <c r="C85" s="2">
+        <v>28</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>127.79049999999999</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1.8409199999999999</v>
+      </c>
+      <c r="C86" s="2">
+        <v>130</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>122.9986</v>
+      </c>
+      <c r="B87" s="2">
+        <v>-8.2751999999999999</v>
+      </c>
+      <c r="C87" s="2">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>116.17</v>
+      </c>
+      <c r="B88" s="2">
+        <v>-3.3</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>107.75</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-2.75</v>
+      </c>
+      <c r="C89" s="2">
+        <v>50</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>112.93</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="C90" s="2">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>104.11667</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1.1166700000000001</v>
+      </c>
+      <c r="C91" s="2">
+        <v>26</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>115.17</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-8.75</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>111.66</v>
+      </c>
+      <c r="B93" s="2">
+        <v>-2.73</v>
+      </c>
+      <c r="C93" s="2">
+        <v>22</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>102.32</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-0.33</v>
+      </c>
+      <c r="C94" s="2">
+        <v>19</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>112.7833</v>
+      </c>
+      <c r="B95" s="2">
+        <v>-7.3845999999999998</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>117.57</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>117.43375</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2.1456200000000001</v>
+      </c>
+      <c r="C97" s="2">
+        <v>13</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>132.7362</v>
+      </c>
+      <c r="B98" s="2">
+        <v>-5.6637000000000004</v>
+      </c>
+      <c r="C98" s="2">
+        <v>10</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>120.65701</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-1.42038</v>
+      </c>
+      <c r="C99" s="2">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>106.84</v>
+      </c>
+      <c r="B100" s="2">
+        <v>-6.1555900000000001</v>
+      </c>
+      <c r="C100" s="2">
+        <v>4</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
